--- a/templates/weekly_report.xlsx
+++ b/templates/weekly_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\2023\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0E8F20-8A1C-4E71-A5C8-3A17333E90D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AB4DC9-ACE6-46CB-8B03-0637114989F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4D6F2006-79D0-4860-A2F9-D92645CD7F7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D6F2006-79D0-4860-A2F9-D92645CD7F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="In" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -134,49 +134,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -508,199 +465,199 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBA089D-B3E6-4DAF-8405-2A0C656604E4}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:F353">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -713,302 +670,302 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E02430-617A-48AE-A357-BB3679984A54}">
   <dimension ref="D3:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="4"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:G121">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$A2&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:G1048576">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>E1="Minor"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>E1="Major"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>E1="Inspection"</formula>
     </cfRule>
   </conditionalFormatting>
